--- a/biology/Botanique/Pararistolochia_goldieana/Pararistolochia_goldieana.xlsx
+++ b/biology/Botanique/Pararistolochia_goldieana/Pararistolochia_goldieana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pararistolochia goldieana est une espèce de liane de la famille des Aristolochiaceae, dont l'aire de distribution se trouve au Cameroun, en Guinée équatoriale, au Nigeria et au Sierra Leone. Elle se rencontre dans les forêts tropicales humides à basse altitude. C'est une espèce dont le statut est vulnérable[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pararistolochia goldieana est une espèce de liane de la famille des Aristolochiaceae, dont l'aire de distribution se trouve au Cameroun, en Guinée équatoriale, au Nigeria et au Sierra Leone. Elle se rencontre dans les forêts tropicales humides à basse altitude. C'est une espèce dont le statut est vulnérable.
 </t>
         </is>
       </c>
